--- a/casos_de_testes/Casos de Teste - Exercício 1.xlsx
+++ b/casos_de_testes/Casos de Teste - Exercício 1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5748dcfc850e4fa7/Documentos/Teste QA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\course-creation-tests\casos_de_testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{093A5A28-6812-48A2-8682-10B26E6BB1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42099C55-C74B-4786-A05C-CE63BDBE42B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B91C9B-35A0-4893-ABCA-21D93C1A91F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS DE TESTES" sheetId="1" r:id="rId1"/>
     <sheet name="CT01" sheetId="2" r:id="rId2"/>
     <sheet name="CT02" sheetId="3" r:id="rId3"/>
-    <sheet name="CT03" sheetId="5" r:id="rId4"/>
+    <sheet name="CT03 - BUG Report" sheetId="5" r:id="rId4"/>
     <sheet name="CT04" sheetId="4" r:id="rId5"/>
     <sheet name="CT05" sheetId="6" r:id="rId6"/>
     <sheet name="CT06 - BUG Report" sheetId="8" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Título</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>CT001</t>
-  </si>
-  <si>
-    <t>CT002</t>
-  </si>
-  <si>
-    <t>CT003</t>
-  </si>
-  <si>
-    <t>CT004</t>
-  </si>
-  <si>
-    <t>CT005</t>
   </si>
   <si>
     <t>Validar caracteres especiais no nome do curso</t>
@@ -86,19 +71,12 @@
 5. Clicar em 'Próximo'</t>
   </si>
   <si>
-    <t>Campos obrigatórios preenchidos; 
-Não anexada aulas</t>
-  </si>
-  <si>
     <t>Sistema exibe mensagem de erro indicando que não existem aulas</t>
   </si>
   <si>
     <t>Falhou</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema não carrega mensagem de erro e redireciona o usuário a outra página </t>
-  </si>
-  <si>
     <t>Carga horária: -60</t>
   </si>
   <si>
@@ -117,164 +95,16 @@
     <t>Criar curso com aula vazia</t>
   </si>
   <si>
-    <t>1. Acessar módulo de cursos
-2. Clicar em 'Cadastrar curso'
-3. Preencher campos referente ao dados
-4. Clicar em próximo
-5. Não incluir aulas
-6. Clicar em 'Concluir'</t>
-  </si>
-  <si>
-    <t>1. Acessar módulo de cursos
-2. Clicar em 'Cadastrar curso'
-3. Preencher campos referente ao dados
-4. Clicar m próximo
-5. Incluir aulas sem informar dados
-6. Clicar em 'Concluir'</t>
-  </si>
-  <si>
     <t>Sistema apresenta mensagem de erro</t>
   </si>
   <si>
-    <t>Sistema exibe mensagem de erro indicando que não existem informação refernte a aula</t>
-  </si>
-  <si>
-    <t>Campos obrigatórios preenchidos; 
-Não preenchido dados de aula</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BUG Report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Título</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Curso pode ser cadastrado sem informações obrigatórias das aulas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Severidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Alta
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descrição</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-O sistema permite avançar e concluir o cadastro de um curso mesmo que nenhuma informação das aulas (como título, formato ou materiais) seja preenchida. Isso causa inconsistência nos dados e pode comprometer a usabilidade da plataforma.
-Passos para Reproduzir:
-1. Acessar o módulo de cursos
-2. Clicar em “Cadastrar curso”
-3. Preencher os campos obrigatórios relacionados ao curso (nome, descrição etc.)
-4. Clicar em “Próximo”
-5. Na etapa de aulas, clicar em “Adicionar aula” sem preencher os campos:
-   - Título da aula
-   - Formato
-   - Materiais
-6. Clicar em “Concluir”
-Resultado Atual:
-- O sistema não exibe nenhuma mensagem de erro ou validação
-- Ocorre a quebra da página
-Resultado Esperado:
-- O sistema deve bloquear o envio e exibir mensagens de erro para cada campo obrigatório não preenchido no modulo de aulas.
-Evidências:</t>
-    </r>
-  </si>
-  <si>
     <t>Incluir avaliação</t>
   </si>
   <si>
-    <t>1. Acessar módulo de cursos
-2. Clicar em 'Cadastrar curso'
-3. Preencher campos referente ao dados
-4. Clicar AVALIAÇÃO
-5. Preenche campós obrigatórios
-6. Clicar em 'Próximo'</t>
-  </si>
-  <si>
     <t>A avaliação deverá ser salva com sucesso</t>
   </si>
   <si>
     <t>Avaliação salva com sucesso</t>
-  </si>
-  <si>
-    <t>CT006</t>
-  </si>
-  <si>
-    <t>1. Acessar módulo de cursos
-2. Clicar em 'Cadastrar curso'
-3. Inserir dados obrigatórios referente ao curso
-4. Clicar em 'Próximo'
-5. Incluir aulas
-6. Clicar em 'Concluir'</t>
   </si>
   <si>
     <t>1. Acessar módulo de cursos
@@ -410,6 +240,154 @@
       </rPr>
       <t>:</t>
     </r>
+  </si>
+  <si>
+    <t>CT05</t>
+  </si>
+  <si>
+    <t>CT04</t>
+  </si>
+  <si>
+    <t>CT03</t>
+  </si>
+  <si>
+    <t>CT02</t>
+  </si>
+  <si>
+    <t>CT01</t>
+  </si>
+  <si>
+    <t>Campos obrigatórios preenchidos; 
+Não anexadas aulas</t>
+  </si>
+  <si>
+    <t>1. Acessar módulo de cursos
+2. Clicar em 'Cadastrar curso'
+3. Preencher campos obrigatórios
+4. Clicar em 'Próximo'
+5. Não incluir aulas
+6. Clicar em 'Concluir'</t>
+  </si>
+  <si>
+    <t>1. Acessar módulo de cursos
+2. Clicar em 'Cadastrar curso'
+3. Preencher campos obrigatórios
+4. Clicar em 'Próximo'
+5. Incluir aulas sem informar dados
+6. Clicar em 'Concluir'</t>
+  </si>
+  <si>
+    <t>1. Acessar módulo de cursos
+2. Clicar em 'Cadastrar curso'
+3. Preencher campos obrigatórios
+4. Clicar em 'Avaliação'
+5. Preencher campos obrigatórios
+6. Clicar em 'Próximo'</t>
+  </si>
+  <si>
+    <t>1. Acessar módulo de cursos
+2. Clicar em 'Cadastrar curso'
+3. Inserir dados obrigatórios do curso
+4. Clicar em 'Próximo'
+5. Incluir aulas
+6. Clicar em 'Concluir'</t>
+  </si>
+  <si>
+    <t>Não preenchido dados de aula</t>
+  </si>
+  <si>
+    <t>Avaliação preenchida corretamente</t>
+  </si>
+  <si>
+    <t>Sistema exibe mensagem de erro indicando que não existem informações referentes à aula</t>
+  </si>
+  <si>
+    <t>Sistema não carrega mensagem de erro e redireciona o usuário a outra página</t>
+  </si>
+  <si>
+    <t>Descrição:</t>
+  </si>
+  <si>
+    <t>O sistema permite avançar e concluir o cadastro de um curso mesmo que nenhuma informação das aulas (como título, formato ou materiais) seja preenchida. Isso causa inconsistência nos dados e pode comprometer a usabilidade da plataforma.</t>
+  </si>
+  <si>
+    <t>2. Clicar em “Cadastrar curso”</t>
+  </si>
+  <si>
+    <t>3. Preencher os campos obrigatórios relacionados ao curso (nome, descrição etc.)</t>
+  </si>
+  <si>
+    <t>4. Clicar em “Próximo”</t>
+  </si>
+  <si>
+    <t>5. Na etapa de aulas, clicar em “Adicionar aula” sem preencher os campos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Título da aula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Formato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Materiais</t>
+  </si>
+  <si>
+    <t>6. Clicar em “Concluir”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Título</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Curso pode ser cadastrado sem informações obrigatórias das aulas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Severidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Alta</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema não exibe nenhuma mensagem de erro ou validação</t>
+  </si>
+  <si>
+    <t>Ocorre a quebra da página</t>
+  </si>
+  <si>
+    <t>O sistema deve bloquear O envio e exibir mensagens de erro para cada campo obrigatório não preenchido no modulo de aulas.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,9 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1261,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1255,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1301,167 +1276,170 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" location="'CT002'!A1" display="CT002" xr:uid="{FA87D7EB-1041-4AB6-BCB5-079BB6A47210}"/>
-    <hyperlink ref="H2" location="'CT001'!A1" display="CT001" xr:uid="{55A1416D-6944-4A98-8532-03625C652ADC}"/>
-    <hyperlink ref="H4" location="'CT003'!A1" display="CT003" xr:uid="{4A4153A1-7989-4482-A05D-3A5F6D885937}"/>
-    <hyperlink ref="H5" location="'CT004'!A1" display="CT004" xr:uid="{D4B9B2B7-D575-483A-915E-C4661EB071BE}"/>
-    <hyperlink ref="H6" location="'CT005'!A1" display="CT005" xr:uid="{BAC674E2-7778-4CB7-AA16-54A75F661EF3}"/>
-    <hyperlink ref="H7" location="'CT06'!A1" display="CT06" xr:uid="{12DE4C07-D280-4705-85D5-33A578CDE310}"/>
+    <hyperlink ref="H3" location="'CT02'!A1" display="CT02" xr:uid="{FA87D7EB-1041-4AB6-BCB5-079BB6A47210}"/>
+    <hyperlink ref="H2" location="'CT01'!A1" display="CT01" xr:uid="{55A1416D-6944-4A98-8532-03625C652ADC}"/>
+    <hyperlink ref="H4" location="'CT03 - BUG Report'!A1" display="CT03" xr:uid="{4A4153A1-7989-4482-A05D-3A5F6D885937}"/>
+    <hyperlink ref="H5" location="'CT04'!A1" display="CT04" xr:uid="{D4B9B2B7-D575-483A-915E-C4661EB071BE}"/>
+    <hyperlink ref="H6" location="'CT05'!A1" display="CT05" xr:uid="{BAC674E2-7778-4CB7-AA16-54A75F661EF3}"/>
+    <hyperlink ref="H7" location="'CT06 - BUG Report'!A1" display="CT06" xr:uid="{12DE4C07-D280-4705-85D5-33A578CDE310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1501,7 +1479,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,98 +1488,120 @@
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-    </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-    </row>
-    <row r="4" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
     <row r="10" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-    </row>
+      <c r="A25" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
@@ -1667,9 +1667,6 @@
       <c r="F38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A30"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1740,9 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B592C5B-6870-49E8-9FE1-4D6EA0D6DDC5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1751,94 +1746,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>46</v>
+      <c r="A1" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
+    <row r="9" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>55</v>
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>59</v>
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
